--- a/Analytics/I1/seriea_shirts_i1.xlsx
+++ b/Analytics/I1/seriea_shirts_i1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Monza</t>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Venezia</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("Tseriea_shirts")</t>
   </si>
   <si>
-    <t>SUM("Tseriea_shirts") / 38</t>
+    <t>SUM("Tseriea_shirts") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>2150.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1733.0</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1560.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1489.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1365.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1326.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1247.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1238.0</v>
+        <v>422.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>1169.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1112.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>1104.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>1098.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>968.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>897.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>864.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>799.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>590.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>546.0</v>
+        <v>128.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>1731.0</v>
+        <v>631.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>1517.0</v>
+        <v>538.0</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>1507.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>1506.0</v>
+        <v>426.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1377.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>1366.0</v>
+        <v>404.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1332.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>1332.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>1328.0</v>
+        <v>363.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>1109.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>1106.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>1078.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>1072.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>1051.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>1038.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>997.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>984.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>951.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>858.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>758.0</v>
+        <v>155.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>3516.0</v>
+        <v>982.0</v>
       </c>
       <c r="D2" t="n">
-        <v>92.52631578947368</v>
+        <v>89.27272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>3238.0</v>
+        <v>951.0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.21052631578948</v>
+        <v>86.45454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>3066.0</v>
+        <v>935.0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.6842105263158</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>3006.0</v>
+        <v>883.0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.10526315789474</v>
+        <v>80.27272727272727</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>2805.0</v>
+        <v>838.0</v>
       </c>
       <c r="D6" t="n">
-        <v>73.8157894736842</v>
+        <v>76.18181818181819</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>2703.0</v>
+        <v>828.0</v>
       </c>
       <c r="D7" t="n">
-        <v>71.13157894736842</v>
+        <v>75.27272727272727</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>2697.0</v>
+        <v>815.0</v>
       </c>
       <c r="D8" t="n">
-        <v>70.97368421052632</v>
+        <v>74.0909090909091</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>2575.0</v>
+        <v>810.0</v>
       </c>
       <c r="D9" t="n">
-        <v>67.76315789473684</v>
+        <v>73.63636363636364</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2316.0</v>
+        <v>793.0</v>
       </c>
       <c r="D10" t="n">
-        <v>60.94736842105263</v>
+        <v>72.0909090909091</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>2306.0</v>
+        <v>744.0</v>
       </c>
       <c r="D11" t="n">
-        <v>60.68421052631579</v>
+        <v>67.63636363636364</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>2275.0</v>
+        <v>708.0</v>
       </c>
       <c r="D12" t="n">
-        <v>59.86842105263158</v>
+        <v>64.36363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>2229.0</v>
+        <v>659.0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6578947368421</v>
+        <v>59.90909090909091</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>2136.0</v>
+        <v>645.0</v>
       </c>
       <c r="D14" t="n">
-        <v>56.21052631578947</v>
+        <v>58.63636363636363</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2109.0</v>
+        <v>573.0</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5</v>
+        <v>52.09090909090909</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>2077.0</v>
+        <v>556.0</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6578947368421</v>
+        <v>50.54545454545455</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>2055.0</v>
+        <v>554.0</v>
       </c>
       <c r="D17" t="n">
-        <v>54.078947368421055</v>
+        <v>50.36363636363637</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>1994.0</v>
+        <v>529.0</v>
       </c>
       <c r="D18" t="n">
-        <v>52.473684210526315</v>
+        <v>48.09090909090909</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>1848.0</v>
+        <v>502.0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.63157894736842</v>
+        <v>45.63636363636363</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>1597.0</v>
+        <v>476.0</v>
       </c>
       <c r="D20" t="n">
-        <v>42.026315789473685</v>
+        <v>43.27272727272727</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>1448.0</v>
+        <v>469.0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.10526315789474</v>
+        <v>42.63636363636363</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/seriea_shirts_i1.xlsx
+++ b/Analytics/I1/seriea_shirts_i1.xlsx
@@ -85,55 +85,55 @@
     <t>Parma</t>
   </si>
   <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Udinese</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Como</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>Genoa</t>
   </si>
   <si>
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Venezia</t>
+  </si>
+  <si>
     <t>Torino</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Venezia</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>604.0</v>
+        <v>991.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>585.0</v>
+        <v>869.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>552.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>514.0</v>
+        <v>734.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>447.0</v>
+        <v>638.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>438.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>438.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>437.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>422.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>418.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>283.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>277.0</v>
+        <v>457.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>265.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>255.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>252.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>237.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>233.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>168.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>128.0</v>
+        <v>164.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>631.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>538.0</v>
+        <v>681.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>536.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>426.0</v>
+        <v>659.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>421.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>404.0</v>
+        <v>601.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>401.0</v>
+        <v>576.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>397.0</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>363.0</v>
+        <v>549.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>361.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>355.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>347.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>306.0</v>
+        <v>488.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>276.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>273.0</v>
+        <v>474.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>239.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>237.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>236.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>223.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>155.0</v>
+        <v>266.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>982.0</v>
+        <v>1479.0</v>
       </c>
       <c r="D2" t="n">
-        <v>89.27272727272727</v>
+        <v>134.45454545454547</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>951.0</v>
+        <v>1445.0</v>
       </c>
       <c r="D3" t="n">
-        <v>86.45454545454545</v>
+        <v>131.36363636363637</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>935.0</v>
+        <v>1417.0</v>
       </c>
       <c r="D4" t="n">
-        <v>85.0</v>
+        <v>128.8181818181818</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>883.0</v>
+        <v>1244.0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.27272727272727</v>
+        <v>113.0909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>838.0</v>
+        <v>1052.0</v>
       </c>
       <c r="D6" t="n">
-        <v>76.18181818181819</v>
+        <v>95.63636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>828.0</v>
+        <v>1051.0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.27272727272727</v>
+        <v>95.54545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>815.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D8" t="n">
-        <v>74.0909090909091</v>
+        <v>95.27272727272727</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>810.0</v>
+        <v>1025.0</v>
       </c>
       <c r="D9" t="n">
-        <v>73.63636363636364</v>
+        <v>93.18181818181819</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>793.0</v>
+        <v>1010.0</v>
       </c>
       <c r="D10" t="n">
-        <v>72.0909090909091</v>
+        <v>91.81818181818181</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>744.0</v>
+        <v>976.0</v>
       </c>
       <c r="D11" t="n">
-        <v>67.63636363636364</v>
+        <v>88.72727272727273</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>708.0</v>
+        <v>976.0</v>
       </c>
       <c r="D12" t="n">
-        <v>64.36363636363636</v>
+        <v>88.72727272727273</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>659.0</v>
+        <v>957.0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.90909090909091</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>645.0</v>
+        <v>948.0</v>
       </c>
       <c r="D14" t="n">
-        <v>58.63636363636363</v>
+        <v>86.18181818181819</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>573.0</v>
+        <v>935.0</v>
       </c>
       <c r="D15" t="n">
-        <v>52.09090909090909</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>556.0</v>
+        <v>896.0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.54545454545455</v>
+        <v>81.45454545454545</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>554.0</v>
+        <v>870.0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.36363636363637</v>
+        <v>79.0909090909091</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>529.0</v>
+        <v>846.0</v>
       </c>
       <c r="D18" t="n">
-        <v>48.09090909090909</v>
+        <v>76.9090909090909</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>502.0</v>
+        <v>839.0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.63636363636363</v>
+        <v>76.27272727272727</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>476.0</v>
+        <v>715.0</v>
       </c>
       <c r="D20" t="n">
-        <v>43.27272727272727</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>469.0</v>
+        <v>713.0</v>
       </c>
       <c r="D21" t="n">
-        <v>42.63636363636363</v>
+        <v>64.81818181818181</v>
       </c>
     </row>
   </sheetData>
